--- a/selenium-framework/src/test/java/com/orangehrm/test/LoginTest.xlsx
+++ b/selenium-framework/src/test/java/com/orangehrm/test/LoginTest.xlsx
@@ -3,41 +3,34 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A0EA9893-AF07-4C4E-920A-2F67665FAC50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maithili\eclipse-workspaceNew\selenium-framework\src\test\java\com\orangehrm\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A67642-1233-4F3E-A8FA-2E68A1995921}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="23280" windowHeight="13224" xr2:uid="{A2369583-20F3-4EDE-A876-CE41F220228D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2369583-20F3-4EDE-A876-CE41F220228D}"/>
   </bookViews>
   <sheets>
     <sheet name="verifyAdminLoginSucc" sheetId="1" r:id="rId1"/>
     <sheet name="verifyAdminLoginSuc1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>sharayu</t>
-  </si>
-  <si>
-    <t>amit</t>
-  </si>
-  <si>
     <t>1a</t>
   </si>
   <si>
@@ -54,16 +47,36 @@
   </si>
   <si>
     <t>3b</t>
+  </si>
+  <si>
+    <t>sharayu2</t>
+  </si>
+  <si>
+    <t>Medrio@222</t>
+  </si>
+  <si>
+    <t>sharayu3</t>
+  </si>
+  <si>
+    <t>Medrio@333</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,13 +99,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,10 +424,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -423,21 +442,25 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{C6F8FB7F-1EBE-4AEE-8918-A14971A1CA72}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{31D1BEA0-DCDA-4C78-8A4B-FADFA7987FCF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -454,26 +477,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
